--- a/MF0489_3 Sistemas seguros de acceso y transmisión de datos/Temario/Anexo. PROTOCOLO DIFFIE-HELLMAN-20241010/Calculo.xlsx
+++ b/MF0489_3 Sistemas seguros de acceso y transmisión de datos/Temario/Anexo. PROTOCOLO DIFFIE-HELLMAN-20241010/Calculo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/358e8f1f1b71d909/profe/FAUCA/SEGURIDAD INFORMATICA IV FAUCA 24/MF0489_3/Anexo/Anexos-Presentaciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/358e8f1f1b71d909/profe/Centro de estudios master/MF0489_3/Anexo/Anexos-Presentaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_AD4D2F04E46CFB4ACB3E20756516E5F4683EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6644E876-8BA9-408F-B3B9-D05F991F09ED}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="11_AD4D2F04E46CFB4ACB3E20756516E5F4683EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD3356F2-339F-4E43-8750-598B89A658E2}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,8 +712,8 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.4" x14ac:dyDescent="0.7">
@@ -735,7 +735,7 @@
       </c>
       <c r="H1" s="11">
         <f>B2^B6</f>
-        <v>117649</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
@@ -779,7 +779,7 @@
       </c>
       <c r="H3" s="11">
         <f>MOD(H1,H2)</f>
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
@@ -801,14 +801,14 @@
       </c>
       <c r="E5" s="8">
         <f>B7^B3</f>
-        <v>32</v>
+        <v>656356768</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="11">
         <f>B4^B6</f>
-        <v>17596287801</v>
+        <v>6765201</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>0</v>
@@ -839,21 +839,21 @@
       </c>
       <c r="B7" s="9">
         <f>+H3</f>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="14">
         <f>MOD(E5,E6)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="15">
         <f>MOD(H5,H6)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
@@ -873,7 +873,6 @@
       <c r="D11" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kiaRn10jVDQPLgIA5T5xpt11xdqICWZt3lXtvxFIGjSl5fjH64yK+L9ycPYUHnpIQQdbwdVegMmjxka0sUcvbA==" saltValue="dOZsVIxgdvgvYJn3c2UD9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>